--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/17.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/17.xlsx
@@ -479,13 +479,13 @@
         <v>0.09279255461568044</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.985486100553565</v>
+        <v>-1.869652405308281</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1953176049549837</v>
+        <v>0.1753603904911105</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03933405140072836</v>
+        <v>0.01280860116895531</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.104583955974666</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.101632075185344</v>
+        <v>-1.980359717265498</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0535311749933929</v>
+        <v>0.074151983153568</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.001465982349656233</v>
+        <v>-0.04495576628449976</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1208952502489439</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.301694596048182</v>
+        <v>-2.210064383018291</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03340562242273723</v>
+        <v>0.06533192024711433</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0271491321268402</v>
+        <v>-0.05013033330603028</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1391225678461183</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.333893528415065</v>
+        <v>-2.262652963608862</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06208531248478441</v>
+        <v>0.09820969432721839</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01467015508057494</v>
+        <v>-0.04740398788096646</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1562519337605805</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.295287379338943</v>
+        <v>-2.22482507331627</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01506469775224638</v>
+        <v>0.07198981435449613</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.00939068170264375</v>
+        <v>-0.04934414555370203</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1696723370822344</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.954567391687176</v>
+        <v>-1.932191841739997</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1079513473762384</v>
+        <v>0.1804245618701496</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.04269966970120869</v>
+        <v>-0.05471022766773145</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1793073350072844</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.778208828005475</v>
+        <v>-1.758276620289348</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1075792957634221</v>
+        <v>0.1579154392947625</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002091075037138441</v>
+        <v>-0.01714277350411157</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1868920208297507</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.372255384292796</v>
+        <v>-1.320345645415445</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1465001639087459</v>
+        <v>0.171974720814482</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03558067556220536</v>
+        <v>-0.03834117654516707</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.197588957441009</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8258280599148872</v>
+        <v>-0.809281521875389</v>
       </c>
       <c r="F10" t="n">
-        <v>0.179205940358007</v>
+        <v>0.1678943514870375</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04605903678255244</v>
+        <v>0.04267153734389373</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.216884066985384</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5103350013740959</v>
+        <v>-0.4618176413008181</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07542366776458768</v>
+        <v>0.07274916559704746</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07495951812958242</v>
+        <v>0.05391420517839068</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2493466983421439</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1278012158010039</v>
+        <v>0.1148574791990566</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03899623135199448</v>
+        <v>-0.08675850962745815</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2038162396647911</v>
+        <v>0.1732634832044506</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3019980952253092</v>
       </c>
       <c r="E13" t="n">
-        <v>0.567214297919405</v>
+        <v>0.5468551457295548</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.07163491652681331</v>
+        <v>-0.1721748508026399</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2549422304725203</v>
+        <v>0.2375039884036166</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3806982866231994</v>
       </c>
       <c r="E14" t="n">
-        <v>1.019264936460026</v>
+        <v>0.9596043256225611</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3760085112098107</v>
+        <v>-0.470259553387688</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4170359693664377</v>
+        <v>0.3643894463115756</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4866208371945213</v>
       </c>
       <c r="E15" t="n">
-        <v>1.566614460901177</v>
+        <v>1.443967951696617</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7647310858836807</v>
+        <v>-0.81778137642655</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4241317865197246</v>
+        <v>0.4260993906229139</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6193395968796768</v>
       </c>
       <c r="E16" t="n">
-        <v>2.239635701103559</v>
+        <v>2.024789312957025</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9352569781336399</v>
+        <v>-1.028103372992967</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5238654056608903</v>
+        <v>0.5408675544459192</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7748071651680958</v>
       </c>
       <c r="E17" t="n">
-        <v>2.655716267732963</v>
+        <v>2.439396921152083</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.253583118217926</v>
+        <v>-1.356559685597361</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5471241207480008</v>
+        <v>0.5884438069149747</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9447322918930626</v>
       </c>
       <c r="E18" t="n">
-        <v>3.155590176616723</v>
+        <v>2.866459719487013</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.50130606060321</v>
+        <v>-1.574244034652803</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6436440678433809</v>
+        <v>0.6991383105379797</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.119732037929244</v>
       </c>
       <c r="E19" t="n">
-        <v>3.38000683010211</v>
+        <v>3.090830019000967</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.773936943585531</v>
+        <v>-1.846132644171522</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7950361385430769</v>
+        <v>0.8410857595582319</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.292364142953759</v>
       </c>
       <c r="E20" t="n">
-        <v>3.684238923188102</v>
+        <v>3.381512114332324</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.96566794800399</v>
+        <v>-2.027091839517934</v>
       </c>
       <c r="G20" t="n">
-        <v>1.028430824390196</v>
+        <v>1.039274604102099</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.456572390098837</v>
       </c>
       <c r="E21" t="n">
-        <v>4.001922206879096</v>
+        <v>3.650381006580464</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.275117302558885</v>
+        <v>-2.269767078382451</v>
       </c>
       <c r="G21" t="n">
-        <v>1.159736987363225</v>
+        <v>1.141367396420927</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.607941729802329</v>
       </c>
       <c r="E22" t="n">
-        <v>4.268111107673604</v>
+        <v>3.86392155455808</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.537242301884221</v>
+        <v>-2.490638872894579</v>
       </c>
       <c r="G22" t="n">
-        <v>1.162255349837517</v>
+        <v>1.159724179029013</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.743431842471706</v>
       </c>
       <c r="E23" t="n">
-        <v>4.542657141580914</v>
+        <v>4.103283704306501</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.721911644707291</v>
+        <v>-2.642471306322887</v>
       </c>
       <c r="G23" t="n">
-        <v>1.416504443464006</v>
+        <v>1.349234462263432</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.858751617193049</v>
       </c>
       <c r="E24" t="n">
-        <v>4.675643026097707</v>
+        <v>4.24190281619374</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.874680916295084</v>
+        <v>-2.796493964901397</v>
       </c>
       <c r="G24" t="n">
-        <v>1.527952809043472</v>
+        <v>1.428083787512068</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.950387299057521</v>
       </c>
       <c r="E25" t="n">
-        <v>4.915562643344677</v>
+        <v>4.455781260226274</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.04139449935503</v>
+        <v>-2.908870019830197</v>
       </c>
       <c r="G25" t="n">
-        <v>1.581642906376249</v>
+        <v>1.508848263685692</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.018836546461106</v>
       </c>
       <c r="E26" t="n">
-        <v>4.978517435757258</v>
+        <v>4.571527126894106</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.196780635606411</v>
+        <v>-3.049074620516641</v>
       </c>
       <c r="G26" t="n">
-        <v>1.612849497802064</v>
+        <v>1.507056316737406</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.065423197628237</v>
       </c>
       <c r="E27" t="n">
-        <v>5.145575928959905</v>
+        <v>4.688450140468063</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.157243442617233</v>
+        <v>-3.008411818918525</v>
       </c>
       <c r="G27" t="n">
-        <v>1.602706516947744</v>
+        <v>1.516745516608226</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.08967078943587</v>
       </c>
       <c r="E28" t="n">
-        <v>5.151859331771763</v>
+        <v>4.725560154124121</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.140485567063242</v>
+        <v>-2.971645495563814</v>
       </c>
       <c r="G28" t="n">
-        <v>1.654416201843121</v>
+        <v>1.538559939532797</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.090782107382927</v>
       </c>
       <c r="E29" t="n">
-        <v>5.175033877805482</v>
+        <v>4.752419840886753</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.318206083616121</v>
+        <v>-3.101849836834297</v>
       </c>
       <c r="G29" t="n">
-        <v>1.661506529710317</v>
+        <v>1.546136984100038</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.067902505328414</v>
       </c>
       <c r="E30" t="n">
-        <v>5.194368363258396</v>
+        <v>4.759152145316698</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.248259465525638</v>
+        <v>-3.03778590367105</v>
       </c>
       <c r="G30" t="n">
-        <v>1.644231746382782</v>
+        <v>1.522999033306924</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.019821571914482</v>
       </c>
       <c r="E31" t="n">
-        <v>5.163246550806649</v>
+        <v>4.734144177728674</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.195995972655774</v>
+        <v>-2.985971617379611</v>
       </c>
       <c r="G31" t="n">
-        <v>1.509174571247752</v>
+        <v>1.396410606768541</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.947547812362481</v>
       </c>
       <c r="E32" t="n">
-        <v>4.961656788569234</v>
+        <v>4.616384352986219</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.183670085699373</v>
+        <v>-2.952323818445112</v>
       </c>
       <c r="G32" t="n">
-        <v>1.470961821008133</v>
+        <v>1.38001837866026</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.854173856640677</v>
       </c>
       <c r="E33" t="n">
-        <v>4.790356906980482</v>
+        <v>4.490436953079099</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.241655244437811</v>
+        <v>-3.013898360366212</v>
       </c>
       <c r="G33" t="n">
-        <v>1.345715829879273</v>
+        <v>1.278964281253935</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.74129618188855</v>
       </c>
       <c r="E34" t="n">
-        <v>4.620874589008438</v>
+        <v>4.349967341858607</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.990150183936012</v>
+        <v>-2.787803205178414</v>
       </c>
       <c r="G34" t="n">
-        <v>1.22182264281144</v>
+        <v>1.173401650205088</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.610549684435688</v>
       </c>
       <c r="E35" t="n">
-        <v>4.392983827348294</v>
+        <v>4.139478836947438</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.944747383798548</v>
+        <v>-2.731247090585597</v>
       </c>
       <c r="G35" t="n">
-        <v>1.204123354692888</v>
+        <v>1.126631102950017</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.466477247928174</v>
       </c>
       <c r="E36" t="n">
-        <v>4.213215807083571</v>
+        <v>3.971989739747007</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.90010119026059</v>
+        <v>-2.690458645328071</v>
       </c>
       <c r="G36" t="n">
-        <v>1.188350196071506</v>
+        <v>1.101831728233441</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.313092386857441</v>
       </c>
       <c r="E37" t="n">
-        <v>3.871077143937688</v>
+        <v>3.648756177897607</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.934025588221993</v>
+        <v>-2.699913025738342</v>
       </c>
       <c r="G37" t="n">
-        <v>1.14079468090546</v>
+        <v>1.068450159674343</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.154662559458948</v>
       </c>
       <c r="E38" t="n">
-        <v>3.621134090289041</v>
+        <v>3.458951302976318</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.870856103731197</v>
+        <v>-2.653154676896806</v>
       </c>
       <c r="G38" t="n">
-        <v>1.085260793366873</v>
+        <v>1.031121184495331</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9981450933584548</v>
       </c>
       <c r="E39" t="n">
-        <v>3.385876706695133</v>
+        <v>3.211826082854247</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.869719821510416</v>
+        <v>-2.664774275709533</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9604606542527154</v>
+        <v>0.9306672490349263</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8486418802861185</v>
       </c>
       <c r="E40" t="n">
-        <v>3.13920770723927</v>
+        <v>2.989588066026204</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.91726069858022</v>
+        <v>-2.722627081661117</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8674038367599107</v>
+        <v>0.8282371705818574</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7091531954749002</v>
       </c>
       <c r="E41" t="n">
-        <v>2.818638278905905</v>
+        <v>2.70652753947149</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.775923780157392</v>
+        <v>-2.620959404053983</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8560111284389337</v>
+        <v>0.810239021331699</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5829254068899173</v>
       </c>
       <c r="E42" t="n">
-        <v>2.461268676620268</v>
+        <v>2.393247883066618</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.826599039585004</v>
+        <v>-2.615563435826793</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8364223060638163</v>
+        <v>0.7919554292048224</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.47079709059883</v>
       </c>
       <c r="E43" t="n">
-        <v>2.303354114203429</v>
+        <v>2.212856523870259</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.623585112567383</v>
+        <v>-2.476741830274874</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7487352302091015</v>
+        <v>0.7074984932541654</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3709298690701325</v>
       </c>
       <c r="E44" t="n">
-        <v>1.925279534704226</v>
+        <v>1.878484590622085</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.550700811537344</v>
+        <v>-2.39642930532272</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8244928675473011</v>
+        <v>0.7538341670667154</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2817029687321806</v>
       </c>
       <c r="E45" t="n">
-        <v>1.811755609061787</v>
+        <v>1.750454921524547</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.59063963729216</v>
+        <v>-2.421958755089364</v>
       </c>
       <c r="G45" t="n">
-        <v>0.73773348104192</v>
+        <v>0.6467272168643423</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2013600757707087</v>
       </c>
       <c r="E46" t="n">
-        <v>1.577809554922888</v>
+        <v>1.543542991461829</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.514441637225349</v>
+        <v>-2.345621693108254</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6585529688658104</v>
+        <v>0.5921441956608051</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1275741582185718</v>
       </c>
       <c r="E47" t="n">
-        <v>1.391190295696254</v>
+        <v>1.383077740774828</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.42394953617827</v>
+        <v>-2.248086838006765</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5515155496205868</v>
+        <v>0.5002437877711148</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.05862990105564322</v>
       </c>
       <c r="E48" t="n">
-        <v>1.276399564808209</v>
+        <v>1.252291230218389</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.418389499289034</v>
+        <v>-2.247493385188289</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5089534550350771</v>
+        <v>0.4394871494775337</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.005890820951191539</v>
       </c>
       <c r="E49" t="n">
-        <v>1.142996494548521</v>
+        <v>1.146970737678211</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.382980554400426</v>
+        <v>-2.192536482609905</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4473002333466763</v>
+        <v>0.387495681229499</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.06665735904544987</v>
       </c>
       <c r="E50" t="n">
-        <v>1.027195125099104</v>
+        <v>1.019238099950249</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.34839256274272</v>
+        <v>-2.156029070582473</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3685332473894019</v>
+        <v>0.3344856454512951</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1247930713765267</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7585952078694106</v>
+        <v>0.814560309326459</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.230435123700999</v>
+        <v>-2.065835830667001</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2873906203961938</v>
+        <v>0.2519615481252526</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1804561093013225</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6520133993697178</v>
+        <v>0.7182123598619218</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.203666315119204</v>
+        <v>-2.013052685380547</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2099428928627254</v>
+        <v>0.1853789475273741</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2337686843034709</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4508737585917432</v>
+        <v>0.562827748412233</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.183020500211282</v>
+        <v>-1.983866151236122</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2045243575704956</v>
+        <v>0.1733927863879212</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2856529339288313</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2797824698744385</v>
+        <v>0.4331397049946167</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.15522885465458</v>
+        <v>-1.95337194716075</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1280775098675708</v>
+        <v>0.1196904906416082</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3360108686946092</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2426285419296538</v>
+        <v>0.3996977542885207</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.109390876114257</v>
+        <v>-1.918525349136103</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08149908762567509</v>
+        <v>0.0746039343750383</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3844920081841774</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1431504795520455</v>
+        <v>0.326271843697529</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.133770015484553</v>
+        <v>-1.945916886728858</v>
       </c>
       <c r="G56" t="n">
-        <v>0.001992267887505255</v>
+        <v>0.01225052374973084</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.4314134982329075</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.03424494928012711</v>
+        <v>0.1547249442346934</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.116015834505094</v>
+        <v>-1.907193632882801</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05036202715700999</v>
+        <v>0.03718164133248446</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4768244176904162</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1865494613122382</v>
+        <v>0.01744521815359405</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.031973034693948</v>
+        <v>-1.878207152720349</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.03042013671624004</v>
+        <v>-0.02260522308506717</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5204339117623006</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2762084107148794</v>
+        <v>-0.04651899297900503</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.122970150061375</v>
+        <v>-1.948102232513646</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.04327543482005886</v>
+        <v>-0.02249421752189903</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5624124282911968</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5188519337042058</v>
+        <v>-0.2155938839389807</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.186246370670602</v>
+        <v>-2.024643617921467</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.05763723699544538</v>
+        <v>-0.03764281737029054</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6033362227781395</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.6164508304767533</v>
+        <v>-0.2881378492313947</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.160285706985498</v>
+        <v>-2.026830793468286</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.07056694542182745</v>
+        <v>-0.05693704805853861</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6431948511876707</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6194644485405655</v>
+        <v>-0.3055888996345101</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.13921538728656</v>
+        <v>-1.982856732516104</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1410829244640542</v>
+        <v>-0.1086095277926341</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.681970806885643</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.80464307512872</v>
+        <v>-0.4812198279488507</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.230949896752175</v>
+        <v>-2.049346625171117</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1304739642126985</v>
+        <v>-0.1139725603032797</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7204745891445892</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.9241094579247157</v>
+        <v>-0.5479536888745626</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.230504654658148</v>
+        <v>-2.067552757372046</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1594555650097359</v>
+        <v>-0.1253311130663588</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7590545714796078</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.050280088799526</v>
+        <v>-0.6548105715994689</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.24560629061443</v>
+        <v>-2.086320626516261</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1681981679902426</v>
+        <v>-0.1223827565149587</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7973818471792873</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.186974291030947</v>
+        <v>-0.7709925315511762</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.294119381242971</v>
+        <v>-2.125572681589059</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2416387166774762</v>
+        <v>-0.1667459468589055</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.8358828349999147</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.307974014408287</v>
+        <v>-0.8560984231018932</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.206727506995802</v>
+        <v>-2.052194344810854</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2419760028117179</v>
+        <v>-0.1850252695410448</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.8742155470690798</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.424329191832191</v>
+        <v>-0.9549909616298233</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.24055553749028</v>
+        <v>-2.096090335916411</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2767311127348525</v>
+        <v>-0.2088914656221963</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.910951214702056</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.514556587305562</v>
+        <v>-1.058778723509333</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.285146228246654</v>
+        <v>-2.111470705621967</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2836158973339846</v>
+        <v>-0.22043482435033</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.9455599093020477</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.626612433879068</v>
+        <v>-1.121062603177492</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.216116625893662</v>
+        <v>-2.100596429876226</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2662667036838861</v>
+        <v>-0.2170942888037809</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.9773445053619502</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.700183505591126</v>
+        <v>-1.168143600057028</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.255904191320645</v>
+        <v>-2.109950173374834</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.339469383307188</v>
+        <v>-0.2554875755637177</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.004209367816606</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.743966051450809</v>
+        <v>-1.226781983840263</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.310036481144065</v>
+        <v>-2.178921223342858</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4111222544908731</v>
+        <v>-0.3000441107621935</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.024605450085513</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.739075707464643</v>
+        <v>-1.239484801774895</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.252231249005268</v>
+        <v>-2.156943951597595</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4505414278291001</v>
+        <v>-0.3239670294662826</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.037125612124952</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.716404345989241</v>
+        <v>-1.237259811146117</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.316552263733764</v>
+        <v>-2.201857290391969</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4281378215307904</v>
+        <v>-0.2980124649879458</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.039294688454849</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.699404636886919</v>
+        <v>-1.212996556704403</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.241618629229852</v>
+        <v>-2.161137156250238</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4710939248734794</v>
+        <v>-0.3468494234958395</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.029388013756286</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.56390282957854</v>
+        <v>-1.114393120577251</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.230312529644973</v>
+        <v>-2.145051718242362</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4163864798518856</v>
+        <v>-0.2946389937248522</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.006656044588567</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.442966537951581</v>
+        <v>-1.009265972891603</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.109448208657871</v>
+        <v>-2.071664842574682</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4390468627551062</v>
+        <v>-0.3139057779826466</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.9701502899663549</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.337450870794844</v>
+        <v>-0.9331631204503639</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.093809232585374</v>
+        <v>-2.033872327681342</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4000826902417333</v>
+        <v>-0.2783272751459022</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.9192712388003362</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.126334757507302</v>
+        <v>-0.7214090301349428</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.010842332848012</v>
+        <v>-1.950482752914994</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.403792227797715</v>
+        <v>-0.2678177319648564</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.8546724090886599</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.018755728701126</v>
+        <v>-0.6413160766264181</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.010641668945362</v>
+        <v>-1.957057697810338</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3705863163935204</v>
+        <v>-0.262291850633519</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.7769943218718295</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.7234278675749789</v>
+        <v>-0.3816453981043162</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.904816162084837</v>
+        <v>-1.871258326450159</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3203910645385087</v>
+        <v>-0.2129779341564083</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.686803253829806</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.5242558309001936</v>
+        <v>-0.2016645155234085</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.001841733421241</v>
+        <v>-1.933909988286396</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2849290565510231</v>
+        <v>-0.1685073977733539</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5857896991854646</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.2861531673492565</v>
+        <v>0.02010325246286209</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.937798232600665</v>
+        <v>-1.870691100220783</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2631579379945012</v>
+        <v>-0.1460690259964695</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4761903984346078</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.08143451204012435</v>
+        <v>0.2086455915832822</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.787940722323667</v>
+        <v>-1.739463007094378</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2586829499892007</v>
+        <v>-0.1553611675067262</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3604830947192402</v>
       </c>
       <c r="E85" t="n">
-        <v>0.205111711182204</v>
+        <v>0.443401010460226</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.67635390475058</v>
+        <v>-1.629793780128986</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2120758614754979</v>
+        <v>-0.1054458692423419</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2430731327134089</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3987096827921888</v>
+        <v>0.5888262271792957</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.515634927062052</v>
+        <v>-1.494791497854864</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2201707286972981</v>
+        <v>-0.1099123183581679</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1300561230857612</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6271908476674253</v>
+        <v>0.7810433383771229</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.461600224546912</v>
+        <v>-1.403219227289264</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1365579229632603</v>
+        <v>-0.06020317328252445</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.02806216202341639</v>
       </c>
       <c r="E88" t="n">
-        <v>0.7927111209233133</v>
+        <v>0.9362419240204035</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.362266713369693</v>
+        <v>-1.296766721973042</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.05022243132821923</v>
+        <v>0.01063240419431824</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.05569393671656234</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8357471238746562</v>
+        <v>0.9830990800115731</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.111902204533412</v>
+        <v>-1.085243791594108</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.06842307424305803</v>
+        <v>-0.001957578415115168</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1140984317441284</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9070126954286063</v>
+        <v>1.019486947586362</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.100033758084572</v>
+        <v>-1.019646212889178</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.01228658507584353</v>
+        <v>0.04404934815266759</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1425677350491257</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9659700677257805</v>
+        <v>1.033176007255296</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8148354595578569</v>
+        <v>-0.7632941127692622</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03334653612327722</v>
+        <v>0.03565257019587708</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1392766086879689</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9522858874222612</v>
+        <v>0.9893782133786942</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5931793070554312</v>
+        <v>-0.5307777126966606</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.06930928898637297</v>
+        <v>0.003146237807912581</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1062344470094987</v>
       </c>
       <c r="E93" t="n">
-        <v>1.059315377698687</v>
+        <v>1.029362783184267</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3792752463544732</v>
+        <v>-0.3389722979556383</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02726379721406884</v>
+        <v>0.02023560524971642</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.05083074445254207</v>
       </c>
       <c r="E94" t="n">
-        <v>1.147128097212812</v>
+        <v>1.091857085485903</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1710885820773516</v>
+        <v>-0.1410438895407423</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.09740101551603501</v>
+        <v>-0.04937830111159992</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.01532962548920062</v>
       </c>
       <c r="E95" t="n">
-        <v>1.159011181757895</v>
+        <v>1.077028693992804</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.04116266959580359</v>
+        <v>0.01193946420458933</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06005374271672118</v>
+        <v>-0.02484790141346978</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.07947726601000299</v>
       </c>
       <c r="E96" t="n">
-        <v>1.163899086061353</v>
+        <v>1.073965062433499</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06177669262234989</v>
+        <v>0.08675904354195035</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1186110070499487</v>
+        <v>-0.08578141670330776</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1288013729190554</v>
       </c>
       <c r="E97" t="n">
-        <v>1.136431918304681</v>
+        <v>1.054586662691859</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1747693773553416</v>
+        <v>0.1739069495184199</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1172209978276399</v>
+        <v>-0.09429163990597342</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1566521233085107</v>
       </c>
       <c r="E98" t="n">
-        <v>1.10454953476903</v>
+        <v>1.040959814931954</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2061443068879385</v>
+        <v>0.2004769239595955</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1333845056821402</v>
+        <v>-0.09657884244377864</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1642817440894183</v>
       </c>
       <c r="E99" t="n">
-        <v>1.0191947955822</v>
+        <v>0.9819280323122168</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2528264156448813</v>
+        <v>0.2143221233217764</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1404382383087315</v>
+        <v>-0.1063247649375359</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1590931149825196</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9168403472930478</v>
+        <v>0.881032514281846</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3036120707149851</v>
+        <v>0.2516901334240997</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1071042435624199</v>
+        <v>-0.07648195614493013</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1508028645502706</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9538722911024828</v>
+        <v>0.9059294763067017</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3130823090628522</v>
+        <v>0.2480672046042162</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1991162669359551</v>
+        <v>-0.1401765823384066</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1510549094342931</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9518955381891424</v>
+        <v>0.9019363256360322</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2987979668134127</v>
+        <v>0.2056344132021771</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.155192219479267</v>
+        <v>-0.1114816442594407</v>
       </c>
     </row>
   </sheetData>
